--- a/Mars Share Skill & Manage Listings Test Conditions and Test cases.xlsx
+++ b/Mars Share Skill & Manage Listings Test Conditions and Test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Competition task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Competition task\Mars-Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E1891D-FFC6-4463-8E88-9D651BE86427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4627330F-302C-49A6-B2E9-75522CA03E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2710,7 +2710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2740,14 +2740,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2759,19 +2755,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3055,7 +3058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3393,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF1564C-1AD9-457B-909B-6312E6DC846F}">
   <dimension ref="A1:H476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3402,7 +3405,11 @@
     <col min="1" max="1" width="13.1796875" customWidth="1"/>
     <col min="2" max="2" width="47.54296875" customWidth="1"/>
     <col min="3" max="3" width="55.54296875" customWidth="1"/>
-    <col min="4" max="4" width="55.1796875" customWidth="1"/>
+    <col min="4" max="4" width="66.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -3432,44 +3439,44 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
         <v>82</v>
       </c>
@@ -3478,14 +3485,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="12" t="s">
         <v>84</v>
       </c>
@@ -3494,14 +3501,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="12" t="s">
         <v>86</v>
       </c>
@@ -3510,10 +3517,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
@@ -3523,41 +3530,41 @@
       <c r="A13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
@@ -3566,14 +3573,14 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="12" t="s">
         <v>84</v>
       </c>
@@ -3582,14 +3589,14 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="12" t="s">
         <v>91</v>
       </c>
@@ -3598,50 +3605,50 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="12" t="s">
         <v>82</v>
       </c>
@@ -3650,14 +3657,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="12" t="s">
         <v>96</v>
       </c>
@@ -3666,14 +3673,14 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
         <v>98</v>
       </c>
@@ -3682,10 +3689,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
@@ -3697,41 +3704,41 @@
       <c r="A35" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="20" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="12" t="s">
         <v>82</v>
       </c>
@@ -3740,14 +3747,14 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="12" t="s">
         <v>96</v>
       </c>
@@ -3756,66 +3763,66 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="20" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="12" t="s">
         <v>82</v>
       </c>
@@ -3824,14 +3831,14 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="12" t="s">
         <v>111</v>
       </c>
@@ -3840,14 +3847,14 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="12" t="s">
         <v>113</v>
       </c>
@@ -3856,50 +3863,50 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="20" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="12" t="s">
         <v>82</v>
       </c>
@@ -3908,14 +3915,14 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="12" t="s">
         <v>118</v>
       </c>
@@ -3924,14 +3931,14 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="12" t="s">
         <v>113</v>
       </c>
@@ -3940,14 +3947,14 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="12" t="s">
         <v>120</v>
       </c>
@@ -3956,14 +3963,14 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="12" t="s">
         <v>122</v>
       </c>
@@ -3972,50 +3979,50 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="20" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="12" t="s">
         <v>82</v>
       </c>
@@ -4024,14 +4031,14 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="12" t="s">
         <v>118</v>
       </c>
@@ -4040,14 +4047,14 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="12" t="s">
         <v>113</v>
       </c>
@@ -4056,14 +4063,14 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="12" t="s">
         <v>120</v>
       </c>
@@ -4072,14 +4079,14 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="12" t="s">
         <v>122</v>
       </c>
@@ -4088,14 +4095,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="12" t="s">
         <v>126</v>
       </c>
@@ -4104,66 +4111,66 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="16"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="16"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="20" t="s">
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="16"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="16"/>
-      <c r="B95" s="21"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="12" t="s">
         <v>82</v>
       </c>
@@ -4172,14 +4179,14 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="16"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="16"/>
-      <c r="B97" s="21"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="12" t="s">
         <v>118</v>
       </c>
@@ -4188,14 +4195,14 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="16"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="16"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="12" t="s">
         <v>113</v>
       </c>
@@ -4204,14 +4211,14 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="16"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="16"/>
-      <c r="B101" s="21"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="12" t="s">
         <v>120</v>
       </c>
@@ -4220,14 +4227,14 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="16"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="16"/>
-      <c r="B103" s="21"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="12" t="s">
         <v>132</v>
       </c>
@@ -4236,48 +4243,48 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="16"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="16"/>
-      <c r="B105" s="21"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="16"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="16"/>
-      <c r="B107" s="21"/>
+      <c r="A107" s="21"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="16"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="12"/>
-      <c r="D108" s="20"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="16"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="20"/>
+      <c r="D109" s="18"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
@@ -4286,38 +4293,38 @@
       <c r="B111" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D111" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="20" t="s">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D113" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="12" t="s">
         <v>82</v>
       </c>
@@ -4326,14 +4333,14 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="12" t="s">
         <v>139</v>
       </c>
@@ -4342,14 +4349,14 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="12" t="s">
         <v>141</v>
       </c>
@@ -4358,10 +4365,10 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
@@ -4370,38 +4377,38 @@
       <c r="B122" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="20" t="s">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="12" t="s">
         <v>82</v>
       </c>
@@ -4410,14 +4417,14 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
       <c r="C128" s="12" t="s">
         <v>139</v>
       </c>
@@ -4426,14 +4433,14 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
       <c r="C130" s="12" t="s">
         <v>141</v>
       </c>
@@ -4442,14 +4449,14 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
       <c r="C132" s="12" t="s">
         <v>145</v>
       </c>
@@ -4458,10 +4465,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="12" t="s">
@@ -4470,38 +4477,38 @@
       <c r="B135" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="20" t="s">
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D137" s="19" t="s">
+      <c r="D137" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="12" t="s">
         <v>149</v>
       </c>
@@ -4510,14 +4517,14 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="12" t="s">
         <v>139</v>
       </c>
@@ -4526,14 +4533,14 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="12" t="s">
         <v>141</v>
       </c>
@@ -4542,14 +4549,14 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="12" t="s">
         <v>150</v>
       </c>
@@ -4558,10 +4565,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C147" s="8"/>
@@ -4570,41 +4577,41 @@
       <c r="A148" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="20" t="s">
+      <c r="A150" s="13"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="13"/>
       <c r="C152" s="12" t="s">
         <v>82</v>
       </c>
@@ -4613,14 +4620,14 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
       <c r="C154" s="12" t="s">
         <v>154</v>
       </c>
@@ -4629,10 +4636,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C156" s="8"/>
@@ -4641,41 +4648,41 @@
       <c r="A157" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="15"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="20" t="s">
+      <c r="A159" s="13"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="15"/>
-      <c r="B161" s="15"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="13"/>
       <c r="C161" s="12" t="s">
         <v>82</v>
       </c>
@@ -4684,14 +4691,14 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="15"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="15"/>
-      <c r="B163" s="15"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="13"/>
       <c r="C163" s="12" t="s">
         <v>158</v>
       </c>
@@ -4700,10 +4707,10 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="12" t="s">
@@ -4712,38 +4719,38 @@
       <c r="B166" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="15"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="15"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="20" t="s">
+      <c r="A168" s="13"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D168" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="15"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="15"/>
-      <c r="B170" s="15"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="13"/>
       <c r="C170" s="12" t="s">
         <v>82</v>
       </c>
@@ -4752,14 +4759,14 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="15"/>
-      <c r="B172" s="15"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
       <c r="C172" s="12" t="s">
         <v>162</v>
       </c>
@@ -4768,14 +4775,14 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="15"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A174" s="15"/>
-      <c r="B174" s="15"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="2" t="s">
         <v>164</v>
       </c>
@@ -4787,41 +4794,41 @@
       <c r="A176" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="15"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="15"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="20" t="s">
+      <c r="A178" s="13"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D178" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="15"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="15"/>
-      <c r="B180" s="15"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="13"/>
       <c r="C180" s="12" t="s">
         <v>82</v>
       </c>
@@ -4830,14 +4837,14 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="15"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="15"/>
-      <c r="B182" s="15"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="13"/>
       <c r="C182" s="12" t="s">
         <v>168</v>
       </c>
@@ -4846,50 +4853,50 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
+      <c r="A183" s="13"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D185" s="19" t="s">
+      <c r="D185" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="15"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="15"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="20" t="s">
+      <c r="A187" s="13"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D187" s="19" t="s">
+      <c r="D187" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="15"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
+      <c r="A188" s="13"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="13"/>
       <c r="C189" s="12" t="s">
         <v>82</v>
       </c>
@@ -4898,14 +4905,14 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="15"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="15"/>
-      <c r="B191" s="15"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="13"/>
       <c r="C191" s="12" t="s">
         <v>172</v>
       </c>
@@ -4914,10 +4921,10 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="15"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
+      <c r="A192" s="13"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
@@ -4926,38 +4933,38 @@
       <c r="B194" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D194" s="19" t="s">
+      <c r="D194" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="15"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
+      <c r="A195" s="13"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="15"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="20" t="s">
+      <c r="A196" s="13"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D196" s="19" t="s">
+      <c r="D196" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="15"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="15"/>
-      <c r="B198" s="15"/>
+      <c r="A198" s="13"/>
+      <c r="B198" s="13"/>
       <c r="C198" s="12" t="s">
         <v>149</v>
       </c>
@@ -4966,14 +4973,14 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="15"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
+      <c r="A199" s="13"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="15"/>
-      <c r="B200" s="15"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="13"/>
       <c r="C200" s="12" t="s">
         <v>172</v>
       </c>
@@ -4982,14 +4989,14 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="15"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="15"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="13"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="15"/>
-      <c r="B202" s="15"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="13"/>
       <c r="C202" s="12" t="s">
         <v>168</v>
       </c>
@@ -4998,10 +5005,10 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="15"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
+      <c r="A203" s="13"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
@@ -5010,38 +5017,38 @@
       <c r="B205" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="C205" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D205" s="19" t="s">
+      <c r="D205" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="15"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="15"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="20" t="s">
+      <c r="A207" s="13"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D207" s="19" t="s">
+      <c r="D207" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="15"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="15"/>
-      <c r="B209" s="15"/>
+      <c r="A209" s="13"/>
+      <c r="B209" s="13"/>
       <c r="C209" s="12" t="s">
         <v>82</v>
       </c>
@@ -5050,14 +5057,14 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="15"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="15"/>
+      <c r="A210" s="13"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="15"/>
-      <c r="B211" s="15"/>
+      <c r="A211" s="13"/>
+      <c r="B211" s="13"/>
       <c r="C211" s="12" t="s">
         <v>179</v>
       </c>
@@ -5066,14 +5073,14 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="15"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="15"/>
-      <c r="B213" s="15"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="13"/>
       <c r="C213" s="12" t="s">
         <v>181</v>
       </c>
@@ -5082,50 +5089,50 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="15"/>
-      <c r="B214" s="15"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
+      <c r="A214" s="13"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B216" s="17" t="s">
+      <c r="B216" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D216" s="19" t="s">
+      <c r="D216" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="15"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="15"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="20" t="s">
+      <c r="A218" s="13"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D218" s="19" t="s">
+      <c r="D218" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="15"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
+      <c r="A219" s="13"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="15"/>
-      <c r="B220" s="15"/>
+      <c r="A220" s="13"/>
+      <c r="B220" s="13"/>
       <c r="C220" s="12" t="s">
         <v>82</v>
       </c>
@@ -5134,14 +5141,14 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="15"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
+      <c r="A221" s="13"/>
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" s="15"/>
-      <c r="B222" s="15"/>
+      <c r="A222" s="13"/>
+      <c r="B222" s="13"/>
       <c r="C222" s="12" t="s">
         <v>179</v>
       </c>
@@ -5150,14 +5157,14 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" s="15"/>
-      <c r="B223" s="15"/>
-      <c r="C223" s="15"/>
-      <c r="D223" s="15"/>
+      <c r="A223" s="13"/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="15"/>
-      <c r="B224" s="15"/>
+      <c r="A224" s="13"/>
+      <c r="B224" s="13"/>
       <c r="C224" s="12" t="s">
         <v>185</v>
       </c>
@@ -5166,50 +5173,50 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" s="15"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="15"/>
-      <c r="D225" s="15"/>
+      <c r="A225" s="13"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B227" s="17" t="s">
+      <c r="B227" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="D227" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" s="15"/>
-      <c r="B228" s="15"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="15"/>
+      <c r="A228" s="13"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="15"/>
-      <c r="B229" s="15"/>
-      <c r="C229" s="20" t="s">
+      <c r="A229" s="13"/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D229" s="19" t="s">
+      <c r="D229" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="15"/>
-      <c r="B230" s="15"/>
-      <c r="C230" s="15"/>
-      <c r="D230" s="15"/>
+      <c r="A230" s="13"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" s="15"/>
-      <c r="B231" s="15"/>
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
       <c r="C231" s="12" t="s">
         <v>82</v>
       </c>
@@ -5218,14 +5225,14 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="15"/>
-      <c r="B232" s="15"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="15"/>
+      <c r="A232" s="13"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="15"/>
-      <c r="B233" s="15"/>
+      <c r="A233" s="13"/>
+      <c r="B233" s="13"/>
       <c r="C233" s="12" t="s">
         <v>189</v>
       </c>
@@ -5234,14 +5241,14 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="15"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="15"/>
-      <c r="D234" s="15"/>
+      <c r="A234" s="13"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="15"/>
-      <c r="B235" s="15"/>
+      <c r="A235" s="13"/>
+      <c r="B235" s="13"/>
       <c r="C235" s="12" t="s">
         <v>191</v>
       </c>
@@ -5250,50 +5257,50 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="15"/>
-      <c r="B236" s="15"/>
-      <c r="C236" s="15"/>
-      <c r="D236" s="15"/>
+      <c r="A236" s="13"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B238" s="17" t="s">
+      <c r="B238" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D238" s="19" t="s">
+      <c r="D238" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="15"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="15"/>
-      <c r="D239" s="15"/>
+      <c r="A239" s="13"/>
+      <c r="B239" s="13"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="15"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="20" t="s">
+      <c r="A240" s="13"/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D240" s="19" t="s">
+      <c r="D240" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="15"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="15"/>
-      <c r="D241" s="15"/>
+      <c r="A241" s="13"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="15"/>
-      <c r="B242" s="15"/>
+      <c r="A242" s="13"/>
+      <c r="B242" s="13"/>
       <c r="C242" s="12" t="s">
         <v>82</v>
       </c>
@@ -5302,14 +5309,14 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="15"/>
-      <c r="B243" s="15"/>
-      <c r="C243" s="15"/>
-      <c r="D243" s="15"/>
+      <c r="A243" s="13"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="15"/>
-      <c r="B244" s="15"/>
+      <c r="A244" s="13"/>
+      <c r="B244" s="13"/>
       <c r="C244" s="12" t="s">
         <v>189</v>
       </c>
@@ -5318,14 +5325,14 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="15"/>
-      <c r="B245" s="15"/>
-      <c r="C245" s="15"/>
-      <c r="D245" s="15"/>
+      <c r="A245" s="13"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="15"/>
-      <c r="B246" s="15"/>
+      <c r="A246" s="13"/>
+      <c r="B246" s="13"/>
       <c r="C246" s="12" t="s">
         <v>195</v>
       </c>
@@ -5334,50 +5341,50 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="15"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="15"/>
+      <c r="A247" s="13"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B249" s="17" t="s">
+      <c r="B249" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D249" s="19" t="s">
+      <c r="D249" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="15"/>
-      <c r="B250" s="15"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15"/>
+      <c r="A250" s="13"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="15"/>
-      <c r="B251" s="15"/>
-      <c r="C251" s="20" t="s">
+      <c r="A251" s="13"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D251" s="19" t="s">
+      <c r="D251" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="15"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="15"/>
+      <c r="A252" s="13"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="15"/>
-      <c r="B253" s="15"/>
+      <c r="A253" s="13"/>
+      <c r="B253" s="13"/>
       <c r="C253" s="12" t="s">
         <v>82</v>
       </c>
@@ -5386,14 +5393,14 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="15"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="15"/>
-      <c r="D254" s="15"/>
+      <c r="A254" s="13"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="15"/>
-      <c r="B255" s="15"/>
+      <c r="A255" s="13"/>
+      <c r="B255" s="13"/>
       <c r="C255" s="12" t="s">
         <v>199</v>
       </c>
@@ -5402,14 +5409,14 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="15"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="15"/>
+      <c r="A256" s="13"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="15"/>
-      <c r="B257" s="15"/>
+      <c r="A257" s="13"/>
+      <c r="B257" s="13"/>
       <c r="C257" s="12" t="s">
         <v>201</v>
       </c>
@@ -5418,50 +5425,50 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="15"/>
-      <c r="B258" s="15"/>
-      <c r="C258" s="15"/>
-      <c r="D258" s="15"/>
+      <c r="A258" s="13"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B260" s="17" t="s">
+      <c r="B260" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D260" s="19" t="s">
+      <c r="D260" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="15"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
+      <c r="A261" s="13"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="15"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="20" t="s">
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D262" s="19" t="s">
+      <c r="D262" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="15"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="15"/>
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="15"/>
-      <c r="B264" s="15"/>
+      <c r="A264" s="13"/>
+      <c r="B264" s="13"/>
       <c r="C264" s="12" t="s">
         <v>82</v>
       </c>
@@ -5470,14 +5477,14 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="15"/>
-      <c r="B265" s="15"/>
-      <c r="C265" s="15"/>
-      <c r="D265" s="15"/>
+      <c r="A265" s="13"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="15"/>
-      <c r="B266" s="15"/>
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
       <c r="C266" s="12" t="s">
         <v>205</v>
       </c>
@@ -5486,14 +5493,14 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="15"/>
-      <c r="B268" s="15"/>
+      <c r="A268" s="13"/>
+      <c r="B268" s="13"/>
       <c r="C268" s="12" t="s">
         <v>207</v>
       </c>
@@ -5502,50 +5509,50 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="15"/>
-      <c r="B269" s="15"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
+      <c r="A269" s="13"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B271" s="17" t="s">
+      <c r="B271" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C271" s="18" t="s">
+      <c r="C271" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D271" s="19" t="s">
+      <c r="D271" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="15"/>
-      <c r="B272" s="15"/>
-      <c r="C272" s="15"/>
-      <c r="D272" s="15"/>
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="15"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="20" t="s">
+      <c r="A273" s="13"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D273" s="19" t="s">
+      <c r="D273" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="15"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="15"/>
-      <c r="D274" s="15"/>
+      <c r="A274" s="13"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="15"/>
-      <c r="B275" s="15"/>
+      <c r="A275" s="13"/>
+      <c r="B275" s="13"/>
       <c r="C275" s="12" t="s">
         <v>82</v>
       </c>
@@ -5554,14 +5561,14 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="15"/>
-      <c r="B276" s="15"/>
-      <c r="C276" s="15"/>
-      <c r="D276" s="15"/>
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="15"/>
-      <c r="B277" s="15"/>
+      <c r="A277" s="13"/>
+      <c r="B277" s="13"/>
       <c r="C277" s="12" t="s">
         <v>211</v>
       </c>
@@ -5570,50 +5577,50 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="15"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="15"/>
+      <c r="A278" s="13"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B280" s="17" t="s">
+      <c r="B280" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D280" s="19" t="s">
+      <c r="D280" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="15"/>
-      <c r="B281" s="15"/>
-      <c r="C281" s="15"/>
-      <c r="D281" s="15"/>
+      <c r="A281" s="13"/>
+      <c r="B281" s="13"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="15"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="20" t="s">
+      <c r="A282" s="13"/>
+      <c r="B282" s="13"/>
+      <c r="C282" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D282" s="19" t="s">
+      <c r="D282" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="15"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="15"/>
+      <c r="A283" s="13"/>
+      <c r="B283" s="13"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="13"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="15"/>
-      <c r="B284" s="15"/>
+      <c r="A284" s="13"/>
+      <c r="B284" s="13"/>
       <c r="C284" s="12" t="s">
         <v>82</v>
       </c>
@@ -5622,14 +5629,14 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="15"/>
+      <c r="A285" s="13"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="15"/>
-      <c r="B286" s="15"/>
+      <c r="A286" s="13"/>
+      <c r="B286" s="13"/>
       <c r="C286" s="12" t="s">
         <v>215</v>
       </c>
@@ -5638,10 +5645,10 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="15"/>
-      <c r="B287" s="15"/>
-      <c r="C287" s="15"/>
-      <c r="D287" s="15"/>
+      <c r="A287" s="13"/>
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="2"/>
@@ -5651,41 +5658,41 @@
       <c r="A289" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B289" s="17" t="s">
+      <c r="B289" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C289" s="18" t="s">
+      <c r="C289" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D289" s="19" t="s">
+      <c r="D289" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="15"/>
-      <c r="B290" s="15"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="15"/>
+      <c r="A290" s="13"/>
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="20" t="s">
+      <c r="A291" s="13"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D291" s="19" t="s">
+      <c r="D291" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="15"/>
-      <c r="B292" s="15"/>
-      <c r="C292" s="15"/>
-      <c r="D292" s="15"/>
+      <c r="A292" s="13"/>
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="15"/>
-      <c r="B293" s="15"/>
+      <c r="A293" s="13"/>
+      <c r="B293" s="13"/>
       <c r="C293" s="12" t="s">
         <v>82</v>
       </c>
@@ -5694,14 +5701,14 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="15"/>
-      <c r="B294" s="15"/>
-      <c r="C294" s="15"/>
-      <c r="D294" s="15"/>
+      <c r="A294" s="13"/>
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="15"/>
-      <c r="B295" s="15"/>
+      <c r="A295" s="13"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="12" t="s">
         <v>215</v>
       </c>
@@ -5710,14 +5717,14 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="15"/>
-      <c r="B296" s="15"/>
-      <c r="C296" s="15"/>
-      <c r="D296" s="15"/>
+      <c r="A296" s="13"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="15"/>
-      <c r="B297" s="15"/>
+      <c r="A297" s="13"/>
+      <c r="B297" s="13"/>
       <c r="C297" s="12" t="s">
         <v>219</v>
       </c>
@@ -5726,14 +5733,14 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
+      <c r="A298" s="13"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
+      <c r="A299" s="13"/>
+      <c r="B299" s="13"/>
       <c r="C299" s="12" t="s">
         <v>221</v>
       </c>
@@ -5742,10 +5749,10 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="15"/>
-      <c r="D300" s="15"/>
+      <c r="A300" s="13"/>
+      <c r="B300" s="13"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="12" t="s">
@@ -5754,38 +5761,38 @@
       <c r="B302" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D302" s="19" t="s">
+      <c r="D302" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" s="15"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="15"/>
+      <c r="A303" s="13"/>
+      <c r="B303" s="13"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" s="15"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="20" t="s">
+      <c r="A304" s="13"/>
+      <c r="B304" s="13"/>
+      <c r="C304" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D304" s="19" t="s">
+      <c r="D304" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="15"/>
-      <c r="B305" s="15"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="15"/>
+      <c r="A305" s="13"/>
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306" s="15"/>
-      <c r="B306" s="15"/>
+      <c r="A306" s="13"/>
+      <c r="B306" s="13"/>
       <c r="C306" s="12" t="s">
         <v>82</v>
       </c>
@@ -5794,14 +5801,14 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="15"/>
-      <c r="B307" s="15"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="15"/>
+      <c r="A307" s="13"/>
+      <c r="B307" s="13"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="15"/>
-      <c r="B308" s="15"/>
+      <c r="A308" s="13"/>
+      <c r="B308" s="13"/>
       <c r="C308" s="12" t="s">
         <v>215</v>
       </c>
@@ -5810,14 +5817,14 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309" s="15"/>
-      <c r="B309" s="15"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="15"/>
+      <c r="A309" s="13"/>
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="15"/>
-      <c r="B310" s="15"/>
+      <c r="A310" s="13"/>
+      <c r="B310" s="13"/>
       <c r="C310" s="12" t="s">
         <v>219</v>
       </c>
@@ -5826,14 +5833,14 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="15"/>
-      <c r="B311" s="15"/>
-      <c r="C311" s="15"/>
-      <c r="D311" s="15"/>
+      <c r="A311" s="13"/>
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312" s="15"/>
-      <c r="B312" s="15"/>
+      <c r="A312" s="13"/>
+      <c r="B312" s="13"/>
       <c r="C312" s="12" t="s">
         <v>221</v>
       </c>
@@ -5842,14 +5849,14 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" s="15"/>
-      <c r="B313" s="15"/>
-      <c r="C313" s="15"/>
-      <c r="D313" s="15"/>
+      <c r="A313" s="13"/>
+      <c r="B313" s="13"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="15"/>
-      <c r="B314" s="15"/>
+      <c r="A314" s="13"/>
+      <c r="B314" s="13"/>
       <c r="C314" s="12" t="s">
         <v>226</v>
       </c>
@@ -5858,10 +5865,10 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" s="15"/>
-      <c r="B315" s="15"/>
-      <c r="C315" s="15"/>
-      <c r="D315" s="15"/>
+      <c r="A315" s="13"/>
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="8"/>
@@ -5873,41 +5880,41 @@
       <c r="A317" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B317" s="17" t="s">
+      <c r="B317" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C317" s="18" t="s">
+      <c r="C317" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D317" s="19" t="s">
+      <c r="D317" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="15"/>
-      <c r="B318" s="15"/>
-      <c r="C318" s="15"/>
-      <c r="D318" s="15"/>
+      <c r="A318" s="13"/>
+      <c r="B318" s="13"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="15"/>
-      <c r="B319" s="15"/>
-      <c r="C319" s="20" t="s">
+      <c r="A319" s="13"/>
+      <c r="B319" s="13"/>
+      <c r="C319" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D319" s="19" t="s">
+      <c r="D319" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="15"/>
-      <c r="B320" s="15"/>
-      <c r="C320" s="15"/>
-      <c r="D320" s="15"/>
+      <c r="A320" s="13"/>
+      <c r="B320" s="13"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" s="15"/>
-      <c r="B321" s="15"/>
+      <c r="A321" s="13"/>
+      <c r="B321" s="13"/>
       <c r="C321" s="12" t="s">
         <v>82</v>
       </c>
@@ -5916,14 +5923,14 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="15"/>
-      <c r="B322" s="15"/>
-      <c r="C322" s="15"/>
-      <c r="D322" s="15"/>
+      <c r="A322" s="13"/>
+      <c r="B322" s="13"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="15"/>
-      <c r="B323" s="15"/>
+      <c r="A323" s="13"/>
+      <c r="B323" s="13"/>
       <c r="C323" s="12" t="s">
         <v>215</v>
       </c>
@@ -5932,14 +5939,14 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" s="15"/>
-      <c r="B324" s="15"/>
-      <c r="C324" s="15"/>
-      <c r="D324" s="15"/>
+      <c r="A324" s="13"/>
+      <c r="B324" s="13"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="13"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="15"/>
-      <c r="B325" s="15"/>
+      <c r="A325" s="13"/>
+      <c r="B325" s="13"/>
       <c r="C325" s="12" t="s">
         <v>219</v>
       </c>
@@ -5948,14 +5955,14 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="15"/>
-      <c r="B326" s="15"/>
-      <c r="C326" s="15"/>
-      <c r="D326" s="15"/>
+      <c r="A326" s="13"/>
+      <c r="B326" s="13"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327" s="15"/>
-      <c r="B327" s="15"/>
+      <c r="A327" s="13"/>
+      <c r="B327" s="13"/>
       <c r="C327" s="12" t="s">
         <v>221</v>
       </c>
@@ -5964,14 +5971,14 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" s="15"/>
-      <c r="B328" s="15"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="15"/>
+      <c r="A328" s="13"/>
+      <c r="B328" s="13"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="15"/>
-      <c r="B329" s="15"/>
+      <c r="A329" s="13"/>
+      <c r="B329" s="13"/>
       <c r="C329" s="12" t="s">
         <v>230</v>
       </c>
@@ -5980,10 +5987,10 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="15"/>
-      <c r="B330" s="15"/>
-      <c r="C330" s="15"/>
-      <c r="D330" s="15"/>
+      <c r="A330" s="13"/>
+      <c r="B330" s="13"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="8"/>
@@ -5995,41 +6002,41 @@
       <c r="A332" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B332" s="17" t="s">
+      <c r="B332" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="C332" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D332" s="19" t="s">
+      <c r="D332" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A333" s="15"/>
-      <c r="B333" s="15"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="15"/>
+      <c r="A333" s="13"/>
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="15"/>
-      <c r="B334" s="15"/>
-      <c r="C334" s="20" t="s">
+      <c r="A334" s="13"/>
+      <c r="B334" s="13"/>
+      <c r="C334" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D334" s="19" t="s">
+      <c r="D334" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="15"/>
-      <c r="B335" s="15"/>
-      <c r="C335" s="15"/>
-      <c r="D335" s="15"/>
+      <c r="A335" s="13"/>
+      <c r="B335" s="13"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A336" s="15"/>
-      <c r="B336" s="15"/>
+      <c r="A336" s="13"/>
+      <c r="B336" s="13"/>
       <c r="C336" s="12" t="s">
         <v>149</v>
       </c>
@@ -6038,14 +6045,14 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="15"/>
-      <c r="B337" s="15"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="15"/>
+      <c r="A337" s="13"/>
+      <c r="B337" s="13"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="15"/>
-      <c r="B338" s="15"/>
+      <c r="A338" s="13"/>
+      <c r="B338" s="13"/>
       <c r="C338" s="12" t="s">
         <v>234</v>
       </c>
@@ -6054,50 +6061,50 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" s="15"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
+      <c r="A339" s="13"/>
+      <c r="B339" s="13"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B341" s="17" t="s">
+      <c r="B341" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C341" s="18" t="s">
+      <c r="C341" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D341" s="19" t="s">
+      <c r="D341" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342" s="15"/>
-      <c r="B342" s="15"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="15"/>
+      <c r="A342" s="13"/>
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="15"/>
-      <c r="B343" s="15"/>
-      <c r="C343" s="20" t="s">
+      <c r="A343" s="13"/>
+      <c r="B343" s="13"/>
+      <c r="C343" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D343" s="19" t="s">
+      <c r="D343" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="15"/>
-      <c r="B344" s="15"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="15"/>
+      <c r="A344" s="13"/>
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345" s="15"/>
-      <c r="B345" s="15"/>
+      <c r="A345" s="13"/>
+      <c r="B345" s="13"/>
       <c r="C345" s="12" t="s">
         <v>82</v>
       </c>
@@ -6106,14 +6113,14 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="15"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="15"/>
+      <c r="A346" s="13"/>
+      <c r="B346" s="13"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="15"/>
-      <c r="B347" s="15"/>
+      <c r="A347" s="13"/>
+      <c r="B347" s="13"/>
       <c r="C347" s="12" t="s">
         <v>237</v>
       </c>
@@ -6122,14 +6129,14 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348" s="15"/>
-      <c r="B348" s="15"/>
-      <c r="C348" s="15"/>
-      <c r="D348" s="15"/>
+      <c r="A348" s="13"/>
+      <c r="B348" s="13"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="13"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349" s="15"/>
-      <c r="B349" s="15"/>
+      <c r="A349" s="13"/>
+      <c r="B349" s="13"/>
       <c r="C349" s="12" t="s">
         <v>238</v>
       </c>
@@ -6138,14 +6145,14 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="15"/>
-      <c r="B350" s="15"/>
-      <c r="C350" s="15"/>
-      <c r="D350" s="15"/>
+      <c r="A350" s="13"/>
+      <c r="B350" s="13"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351" s="15"/>
-      <c r="B351" s="15"/>
+      <c r="A351" s="13"/>
+      <c r="B351" s="13"/>
       <c r="C351" s="12" t="s">
         <v>240</v>
       </c>
@@ -6154,10 +6161,10 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="15"/>
-      <c r="B352" s="15"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
+      <c r="A352" s="13"/>
+      <c r="B352" s="13"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="2"/>
@@ -6169,38 +6176,38 @@
       <c r="B354" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C354" s="18" t="s">
+      <c r="C354" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D354" s="19" t="s">
+      <c r="D354" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="15"/>
-      <c r="B355" s="15"/>
-      <c r="C355" s="15"/>
-      <c r="D355" s="15"/>
+      <c r="A355" s="13"/>
+      <c r="B355" s="13"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="15"/>
-      <c r="B356" s="15"/>
-      <c r="C356" s="20" t="s">
+      <c r="A356" s="13"/>
+      <c r="B356" s="13"/>
+      <c r="C356" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D356" s="19" t="s">
+      <c r="D356" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" s="15"/>
-      <c r="B357" s="15"/>
-      <c r="C357" s="15"/>
-      <c r="D357" s="15"/>
+      <c r="A357" s="13"/>
+      <c r="B357" s="13"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="15"/>
-      <c r="B358" s="15"/>
+      <c r="A358" s="13"/>
+      <c r="B358" s="13"/>
       <c r="C358" s="12" t="s">
         <v>82</v>
       </c>
@@ -6209,14 +6216,14 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="15"/>
-      <c r="B359" s="15"/>
-      <c r="C359" s="15"/>
-      <c r="D359" s="15"/>
+      <c r="A359" s="13"/>
+      <c r="B359" s="13"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360" s="15"/>
-      <c r="B360" s="15"/>
+      <c r="A360" s="13"/>
+      <c r="B360" s="13"/>
       <c r="C360" s="12" t="s">
         <v>237</v>
       </c>
@@ -6225,14 +6232,14 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="15"/>
-      <c r="B361" s="15"/>
-      <c r="C361" s="15"/>
-      <c r="D361" s="15"/>
+      <c r="A361" s="13"/>
+      <c r="B361" s="13"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="15"/>
-      <c r="B362" s="15"/>
+      <c r="A362" s="13"/>
+      <c r="B362" s="13"/>
       <c r="C362" s="12" t="s">
         <v>238</v>
       </c>
@@ -6241,14 +6248,14 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A363" s="15"/>
-      <c r="B363" s="15"/>
-      <c r="C363" s="15"/>
-      <c r="D363" s="15"/>
+      <c r="A363" s="13"/>
+      <c r="B363" s="13"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="15"/>
-      <c r="B364" s="15"/>
+      <c r="A364" s="13"/>
+      <c r="B364" s="13"/>
       <c r="C364" s="12" t="s">
         <v>244</v>
       </c>
@@ -6257,10 +6264,10 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="15"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="15"/>
-      <c r="D365" s="15"/>
+      <c r="A365" s="13"/>
+      <c r="B365" s="13"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="13"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="12" t="s">
@@ -6269,38 +6276,38 @@
       <c r="B367" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C367" s="18" t="s">
+      <c r="C367" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D367" s="19" t="s">
+      <c r="D367" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="15"/>
-      <c r="B368" s="15"/>
-      <c r="C368" s="15"/>
-      <c r="D368" s="15"/>
+      <c r="A368" s="13"/>
+      <c r="B368" s="13"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="13"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
-      <c r="C369" s="20" t="s">
+      <c r="A369" s="13"/>
+      <c r="B369" s="13"/>
+      <c r="C369" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D369" s="19" t="s">
+      <c r="D369" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A370" s="15"/>
-      <c r="B370" s="15"/>
-      <c r="C370" s="15"/>
-      <c r="D370" s="15"/>
+      <c r="A370" s="13"/>
+      <c r="B370" s="13"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="13"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="15"/>
-      <c r="B371" s="15"/>
+      <c r="A371" s="13"/>
+      <c r="B371" s="13"/>
       <c r="C371" s="12" t="s">
         <v>82</v>
       </c>
@@ -6309,14 +6316,14 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A372" s="15"/>
-      <c r="B372" s="15"/>
-      <c r="C372" s="15"/>
-      <c r="D372" s="15"/>
+      <c r="A372" s="13"/>
+      <c r="B372" s="13"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="13"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373" s="15"/>
-      <c r="B373" s="15"/>
+      <c r="A373" s="13"/>
+      <c r="B373" s="13"/>
       <c r="C373" s="12" t="s">
         <v>248</v>
       </c>
@@ -6325,14 +6332,14 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="15"/>
-      <c r="B374" s="15"/>
-      <c r="C374" s="15"/>
-      <c r="D374" s="15"/>
+      <c r="A374" s="13"/>
+      <c r="B374" s="13"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="13"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A375" s="15"/>
-      <c r="B375" s="15"/>
+      <c r="A375" s="13"/>
+      <c r="B375" s="13"/>
       <c r="C375" s="12" t="s">
         <v>250</v>
       </c>
@@ -6341,14 +6348,14 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376" s="15"/>
-      <c r="B376" s="15"/>
-      <c r="C376" s="15"/>
-      <c r="D376" s="15"/>
+      <c r="A376" s="13"/>
+      <c r="B376" s="13"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="13"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="15"/>
-      <c r="B377" s="15"/>
+      <c r="A377" s="13"/>
+      <c r="B377" s="13"/>
       <c r="C377" s="12" t="s">
         <v>252</v>
       </c>
@@ -6357,10 +6364,10 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" s="15"/>
-      <c r="B378" s="15"/>
-      <c r="C378" s="15"/>
-      <c r="D378" s="15"/>
+      <c r="A378" s="13"/>
+      <c r="B378" s="13"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="13"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="8"/>
@@ -6375,38 +6382,38 @@
       <c r="B380" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C380" s="18" t="s">
+      <c r="C380" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D380" s="19" t="s">
+      <c r="D380" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A381" s="15"/>
-      <c r="B381" s="15"/>
-      <c r="C381" s="15"/>
-      <c r="D381" s="15"/>
+      <c r="A381" s="13"/>
+      <c r="B381" s="13"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="13"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="15"/>
-      <c r="B382" s="15"/>
-      <c r="C382" s="20" t="s">
+      <c r="A382" s="13"/>
+      <c r="B382" s="13"/>
+      <c r="C382" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D382" s="19" t="s">
+      <c r="D382" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="15"/>
-      <c r="B383" s="15"/>
-      <c r="C383" s="15"/>
-      <c r="D383" s="15"/>
+      <c r="A383" s="13"/>
+      <c r="B383" s="13"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="13"/>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A384" s="15"/>
-      <c r="B384" s="15"/>
+      <c r="A384" s="13"/>
+      <c r="B384" s="13"/>
       <c r="C384" s="12" t="s">
         <v>82</v>
       </c>
@@ -6415,14 +6422,14 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" s="15"/>
-      <c r="B385" s="15"/>
-      <c r="C385" s="15"/>
-      <c r="D385" s="15"/>
+      <c r="A385" s="13"/>
+      <c r="B385" s="13"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="13"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="15"/>
-      <c r="B386" s="15"/>
+      <c r="A386" s="13"/>
+      <c r="B386" s="13"/>
       <c r="C386" s="12" t="s">
         <v>248</v>
       </c>
@@ -6431,14 +6438,14 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A387" s="15"/>
-      <c r="B387" s="15"/>
-      <c r="C387" s="15"/>
-      <c r="D387" s="15"/>
+      <c r="A387" s="13"/>
+      <c r="B387" s="13"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="13"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" s="15"/>
-      <c r="B388" s="15"/>
+      <c r="A388" s="13"/>
+      <c r="B388" s="13"/>
       <c r="C388" s="12" t="s">
         <v>250</v>
       </c>
@@ -6447,42 +6454,42 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" s="15"/>
-      <c r="B389" s="15"/>
-      <c r="C389" s="15"/>
-      <c r="D389" s="15"/>
+      <c r="A389" s="13"/>
+      <c r="B389" s="13"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="13"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A390" s="15"/>
-      <c r="B390" s="15"/>
+      <c r="A390" s="13"/>
+      <c r="B390" s="13"/>
       <c r="C390" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D390" s="20" t="s">
+      <c r="D390" s="18" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" s="15"/>
-      <c r="B391" s="15"/>
-      <c r="C391" s="15"/>
-      <c r="D391" s="15"/>
+      <c r="A391" s="13"/>
+      <c r="B391" s="13"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="13"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" s="15"/>
-      <c r="B392" s="15"/>
+      <c r="A392" s="13"/>
+      <c r="B392" s="13"/>
       <c r="C392" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D392" s="22" t="s">
+      <c r="D392" s="20" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A393" s="15"/>
-      <c r="B393" s="15"/>
-      <c r="C393" s="15"/>
-      <c r="D393" s="15"/>
+      <c r="A393" s="13"/>
+      <c r="B393" s="13"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="13"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="8"/>
@@ -6494,41 +6501,41 @@
       <c r="A395" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B395" s="16" t="s">
+      <c r="B395" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C395" s="18" t="s">
+      <c r="C395" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D395" s="19" t="s">
+      <c r="D395" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A396" s="15"/>
-      <c r="B396" s="16"/>
-      <c r="C396" s="15"/>
-      <c r="D396" s="15"/>
+      <c r="A396" s="13"/>
+      <c r="B396" s="21"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="13"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A397" s="15"/>
-      <c r="B397" s="16"/>
-      <c r="C397" s="20" t="s">
+      <c r="A397" s="13"/>
+      <c r="B397" s="21"/>
+      <c r="C397" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D397" s="19" t="s">
+      <c r="D397" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A398" s="15"/>
-      <c r="B398" s="16"/>
-      <c r="C398" s="15"/>
-      <c r="D398" s="15"/>
+      <c r="A398" s="13"/>
+      <c r="B398" s="21"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="13"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A399" s="15"/>
-      <c r="B399" s="16"/>
+      <c r="A399" s="13"/>
+      <c r="B399" s="21"/>
       <c r="C399" s="12" t="s">
         <v>82</v>
       </c>
@@ -6537,14 +6544,14 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A400" s="15"/>
-      <c r="B400" s="16"/>
-      <c r="C400" s="15"/>
-      <c r="D400" s="15"/>
+      <c r="A400" s="13"/>
+      <c r="B400" s="21"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="13"/>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A401" s="15"/>
-      <c r="B401" s="16"/>
+      <c r="A401" s="13"/>
+      <c r="B401" s="21"/>
       <c r="C401" s="12" t="s">
         <v>260</v>
       </c>
@@ -6553,10 +6560,10 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A402" s="15"/>
-      <c r="B402" s="16"/>
-      <c r="C402" s="15"/>
-      <c r="D402" s="15"/>
+      <c r="A402" s="13"/>
+      <c r="B402" s="21"/>
+      <c r="C402" s="13"/>
+      <c r="D402" s="13"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="12" t="s">
@@ -6565,38 +6572,38 @@
       <c r="B404" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C404" s="18" t="s">
+      <c r="C404" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D404" s="19" t="s">
+      <c r="D404" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A405" s="15"/>
-      <c r="B405" s="15"/>
-      <c r="C405" s="15"/>
-      <c r="D405" s="15"/>
+      <c r="A405" s="13"/>
+      <c r="B405" s="13"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="13"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A406" s="15"/>
-      <c r="B406" s="15"/>
-      <c r="C406" s="20" t="s">
+      <c r="A406" s="13"/>
+      <c r="B406" s="13"/>
+      <c r="C406" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D406" s="19" t="s">
+      <c r="D406" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A407" s="15"/>
-      <c r="B407" s="15"/>
-      <c r="C407" s="15"/>
-      <c r="D407" s="15"/>
+      <c r="A407" s="13"/>
+      <c r="B407" s="13"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="13"/>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A408" s="15"/>
-      <c r="B408" s="15"/>
+      <c r="A408" s="13"/>
+      <c r="B408" s="13"/>
       <c r="C408" s="12" t="s">
         <v>149</v>
       </c>
@@ -6605,14 +6612,14 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A409" s="15"/>
-      <c r="B409" s="15"/>
-      <c r="C409" s="15"/>
-      <c r="D409" s="15"/>
+      <c r="A409" s="13"/>
+      <c r="B409" s="13"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="13"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A410" s="15"/>
-      <c r="B410" s="15"/>
+      <c r="A410" s="13"/>
+      <c r="B410" s="13"/>
       <c r="C410" s="12" t="s">
         <v>264</v>
       </c>
@@ -6621,10 +6628,10 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A411" s="15"/>
-      <c r="B411" s="15"/>
-      <c r="C411" s="15"/>
-      <c r="D411" s="15"/>
+      <c r="A411" s="13"/>
+      <c r="B411" s="13"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="13"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="12" t="s">
@@ -6633,38 +6640,38 @@
       <c r="B413" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C413" s="18" t="s">
+      <c r="C413" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D413" s="19" t="s">
+      <c r="D413" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A414" s="15"/>
-      <c r="B414" s="15"/>
-      <c r="C414" s="15"/>
-      <c r="D414" s="15"/>
+      <c r="A414" s="13"/>
+      <c r="B414" s="13"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="13"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" s="15"/>
-      <c r="B415" s="15"/>
-      <c r="C415" s="20" t="s">
+      <c r="A415" s="13"/>
+      <c r="B415" s="13"/>
+      <c r="C415" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D415" s="19" t="s">
+      <c r="D415" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A416" s="15"/>
-      <c r="B416" s="15"/>
-      <c r="C416" s="15"/>
-      <c r="D416" s="15"/>
+      <c r="A416" s="13"/>
+      <c r="B416" s="13"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="13"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A417" s="15"/>
-      <c r="B417" s="15"/>
+      <c r="A417" s="13"/>
+      <c r="B417" s="13"/>
       <c r="C417" s="12" t="s">
         <v>149</v>
       </c>
@@ -6673,14 +6680,14 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A418" s="15"/>
-      <c r="B418" s="15"/>
-      <c r="C418" s="15"/>
-      <c r="D418" s="15"/>
+      <c r="A418" s="13"/>
+      <c r="B418" s="13"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="13"/>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A419" s="15"/>
-      <c r="B419" s="15"/>
+      <c r="A419" s="13"/>
+      <c r="B419" s="13"/>
       <c r="C419" s="12" t="s">
         <v>264</v>
       </c>
@@ -6689,72 +6696,72 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A420" s="15"/>
-      <c r="B420" s="15"/>
-      <c r="C420" s="15"/>
-      <c r="D420" s="15"/>
+      <c r="A420" s="13"/>
+      <c r="B420" s="13"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="13"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A421" s="15"/>
-      <c r="B421" s="15"/>
+      <c r="A421" s="13"/>
+      <c r="B421" s="13"/>
       <c r="C421" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D421" s="20" t="s">
+      <c r="D421" s="18" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A422" s="15"/>
-      <c r="B422" s="15"/>
-      <c r="C422" s="15"/>
-      <c r="D422" s="15"/>
+      <c r="A422" s="13"/>
+      <c r="B422" s="13"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A423" s="15"/>
-      <c r="B423" s="15"/>
-      <c r="C423" s="15"/>
-      <c r="D423" s="15"/>
+      <c r="A423" s="13"/>
+      <c r="B423" s="13"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B425" s="17" t="s">
+      <c r="B425" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="C425" s="18" t="s">
+      <c r="C425" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D425" s="19" t="s">
+      <c r="D425" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A426" s="15"/>
-      <c r="B426" s="15"/>
-      <c r="C426" s="15"/>
-      <c r="D426" s="15"/>
+      <c r="A426" s="13"/>
+      <c r="B426" s="13"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A427" s="15"/>
-      <c r="B427" s="15"/>
-      <c r="C427" s="20" t="s">
+      <c r="A427" s="13"/>
+      <c r="B427" s="13"/>
+      <c r="C427" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D427" s="19" t="s">
+      <c r="D427" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A428" s="15"/>
-      <c r="B428" s="15"/>
-      <c r="C428" s="15"/>
-      <c r="D428" s="15"/>
+      <c r="A428" s="13"/>
+      <c r="B428" s="13"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="13"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A429" s="15"/>
-      <c r="B429" s="15"/>
+      <c r="A429" s="13"/>
+      <c r="B429" s="13"/>
       <c r="C429" s="12" t="s">
         <v>149</v>
       </c>
@@ -6763,14 +6770,14 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430" s="15"/>
-      <c r="B430" s="15"/>
-      <c r="C430" s="15"/>
-      <c r="D430" s="15"/>
+      <c r="A430" s="13"/>
+      <c r="B430" s="13"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431" s="15"/>
-      <c r="B431" s="15"/>
+      <c r="A431" s="13"/>
+      <c r="B431" s="13"/>
       <c r="C431" s="12" t="s">
         <v>272</v>
       </c>
@@ -6779,14 +6786,14 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432" s="15"/>
-      <c r="B432" s="15"/>
-      <c r="C432" s="15"/>
-      <c r="D432" s="15"/>
+      <c r="A432" s="13"/>
+      <c r="B432" s="13"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="13"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433" s="15"/>
-      <c r="B433" s="15"/>
+      <c r="A433" s="13"/>
+      <c r="B433" s="13"/>
       <c r="C433" s="12" t="s">
         <v>274</v>
       </c>
@@ -6795,19 +6802,19 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434" s="15"/>
-      <c r="B434" s="15"/>
-      <c r="C434" s="15"/>
-      <c r="D434" s="15"/>
+      <c r="A434" s="13"/>
+      <c r="B434" s="13"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B436" s="17" t="s">
+      <c r="B436" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C436" s="18" t="s">
+      <c r="C436" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D436" s="14" t="s">
@@ -6815,15 +6822,15 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437" s="15"/>
-      <c r="B437" s="15"/>
-      <c r="C437" s="15"/>
-      <c r="D437" s="15"/>
+      <c r="A437" s="13"/>
+      <c r="B437" s="13"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A438" s="15"/>
-      <c r="B438" s="15"/>
-      <c r="C438" s="20" t="s">
+      <c r="A438" s="13"/>
+      <c r="B438" s="13"/>
+      <c r="C438" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D438" s="14" t="s">
@@ -6831,14 +6838,14 @@
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439" s="15"/>
-      <c r="B439" s="15"/>
-      <c r="C439" s="15"/>
-      <c r="D439" s="15"/>
+      <c r="A439" s="13"/>
+      <c r="B439" s="13"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="13"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440" s="15"/>
-      <c r="B440" s="15"/>
+      <c r="A440" s="13"/>
+      <c r="B440" s="13"/>
       <c r="C440" s="12" t="s">
         <v>149</v>
       </c>
@@ -6847,14 +6854,14 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441" s="15"/>
-      <c r="B441" s="15"/>
-      <c r="C441" s="15"/>
-      <c r="D441" s="15"/>
+      <c r="A441" s="13"/>
+      <c r="B441" s="13"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="13"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442" s="15"/>
-      <c r="B442" s="15"/>
+      <c r="A442" s="13"/>
+      <c r="B442" s="13"/>
       <c r="C442" s="12" t="s">
         <v>278</v>
       </c>
@@ -6863,14 +6870,14 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443" s="15"/>
-      <c r="B443" s="15"/>
-      <c r="C443" s="15"/>
-      <c r="D443" s="15"/>
+      <c r="A443" s="13"/>
+      <c r="B443" s="13"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A444" s="15"/>
-      <c r="B444" s="15"/>
+      <c r="A444" s="13"/>
+      <c r="B444" s="13"/>
       <c r="C444" s="12" t="s">
         <v>274</v>
       </c>
@@ -6879,10 +6886,10 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A445" s="15"/>
-      <c r="B445" s="15"/>
-      <c r="C445" s="15"/>
-      <c r="D445" s="15"/>
+      <c r="A445" s="13"/>
+      <c r="B445" s="13"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="13"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D446" s="6"/>
@@ -6891,10 +6898,10 @@
       <c r="A447" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B447" s="17" t="s">
+      <c r="B447" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C447" s="18" t="s">
+      <c r="C447" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D447" s="14" t="s">
@@ -6902,15 +6909,15 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448" s="15"/>
-      <c r="B448" s="15"/>
-      <c r="C448" s="15"/>
-      <c r="D448" s="15"/>
+      <c r="A448" s="13"/>
+      <c r="B448" s="13"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="13"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449" s="15"/>
-      <c r="B449" s="15"/>
-      <c r="C449" s="20" t="s">
+      <c r="A449" s="13"/>
+      <c r="B449" s="13"/>
+      <c r="C449" s="18" t="s">
         <v>350</v>
       </c>
       <c r="D449" s="14" t="s">
@@ -6918,14 +6925,14 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A450" s="15"/>
-      <c r="B450" s="15"/>
-      <c r="C450" s="15"/>
-      <c r="D450" s="15"/>
+      <c r="A450" s="13"/>
+      <c r="B450" s="13"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="13"/>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" s="15"/>
-      <c r="B451" s="15"/>
+      <c r="A451" s="13"/>
+      <c r="B451" s="13"/>
       <c r="C451" s="12" t="s">
         <v>149</v>
       </c>
@@ -6934,14 +6941,14 @@
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452" s="15"/>
-      <c r="B452" s="15"/>
-      <c r="C452" s="15"/>
-      <c r="D452" s="15"/>
+      <c r="A452" s="13"/>
+      <c r="B452" s="13"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="13"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A453" s="15"/>
-      <c r="B453" s="15"/>
+      <c r="A453" s="13"/>
+      <c r="B453" s="13"/>
       <c r="C453" s="12" t="s">
         <v>283</v>
       </c>
@@ -6950,14 +6957,14 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A454" s="15"/>
-      <c r="B454" s="15"/>
-      <c r="C454" s="15"/>
-      <c r="D454" s="15"/>
+      <c r="A454" s="13"/>
+      <c r="B454" s="13"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="13"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A455" s="15"/>
-      <c r="B455" s="15"/>
+      <c r="A455" s="13"/>
+      <c r="B455" s="13"/>
       <c r="C455" s="12" t="s">
         <v>274</v>
       </c>
@@ -6966,10 +6973,10 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A456" s="15"/>
-      <c r="B456" s="15"/>
-      <c r="C456" s="15"/>
-      <c r="D456" s="15"/>
+      <c r="A456" s="13"/>
+      <c r="B456" s="13"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="13"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D457" s="6"/>
@@ -6978,41 +6985,41 @@
       <c r="A458" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B458" s="17" t="s">
+      <c r="B458" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C458" s="18" t="s">
+      <c r="C458" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D458" s="19" t="s">
+      <c r="D458" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A459" s="15"/>
-      <c r="B459" s="15"/>
-      <c r="C459" s="15"/>
-      <c r="D459" s="15"/>
+      <c r="A459" s="13"/>
+      <c r="B459" s="13"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="13"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A460" s="15"/>
-      <c r="B460" s="15"/>
-      <c r="C460" s="20" t="s">
+      <c r="A460" s="13"/>
+      <c r="B460" s="13"/>
+      <c r="C460" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D460" s="19" t="s">
+      <c r="D460" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A461" s="15"/>
-      <c r="B461" s="15"/>
-      <c r="C461" s="15"/>
-      <c r="D461" s="15"/>
+      <c r="A461" s="13"/>
+      <c r="B461" s="13"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="13"/>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A462" s="15"/>
-      <c r="B462" s="15"/>
+      <c r="A462" s="13"/>
+      <c r="B462" s="13"/>
       <c r="C462" s="12" t="s">
         <v>149</v>
       </c>
@@ -7021,14 +7028,14 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A463" s="15"/>
-      <c r="B463" s="15"/>
-      <c r="C463" s="15"/>
-      <c r="D463" s="15"/>
+      <c r="A463" s="13"/>
+      <c r="B463" s="13"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="13"/>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A464" s="15"/>
-      <c r="B464" s="15"/>
+      <c r="A464" s="13"/>
+      <c r="B464" s="13"/>
       <c r="C464" s="12" t="s">
         <v>288</v>
       </c>
@@ -7037,14 +7044,14 @@
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A465" s="15"/>
-      <c r="B465" s="15"/>
-      <c r="C465" s="15"/>
-      <c r="D465" s="15"/>
+      <c r="A465" s="13"/>
+      <c r="B465" s="13"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="13"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A466" s="15"/>
-      <c r="B466" s="15"/>
+      <c r="A466" s="13"/>
+      <c r="B466" s="13"/>
       <c r="C466" s="12" t="s">
         <v>274</v>
       </c>
@@ -7053,10 +7060,10 @@
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A467" s="15"/>
-      <c r="B467" s="15"/>
-      <c r="C467" s="15"/>
-      <c r="D467" s="15"/>
+      <c r="A467" s="13"/>
+      <c r="B467" s="13"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="13"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D468" s="6"/>
@@ -7065,41 +7072,41 @@
       <c r="A469" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B469" s="23" t="s">
+      <c r="B469" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C469" s="18" t="s">
+      <c r="C469" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D469" s="19" t="s">
+      <c r="D469" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A470" s="15"/>
-      <c r="B470" s="23"/>
-      <c r="C470" s="15"/>
-      <c r="D470" s="15"/>
+      <c r="A470" s="13"/>
+      <c r="B470" s="15"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="13"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A471" s="15"/>
-      <c r="B471" s="23"/>
-      <c r="C471" s="20" t="s">
+      <c r="A471" s="13"/>
+      <c r="B471" s="15"/>
+      <c r="C471" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D471" s="19" t="s">
+      <c r="D471" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A472" s="15"/>
-      <c r="B472" s="23"/>
-      <c r="C472" s="15"/>
-      <c r="D472" s="15"/>
+      <c r="A472" s="13"/>
+      <c r="B472" s="15"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="13"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A473" s="15"/>
-      <c r="B473" s="23"/>
+      <c r="A473" s="13"/>
+      <c r="B473" s="15"/>
       <c r="C473" s="12" t="s">
         <v>149</v>
       </c>
@@ -7108,14 +7115,14 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A474" s="15"/>
-      <c r="B474" s="23"/>
-      <c r="C474" s="15"/>
-      <c r="D474" s="15"/>
+      <c r="A474" s="13"/>
+      <c r="B474" s="15"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="13"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A475" s="15"/>
-      <c r="B475" s="23"/>
+      <c r="A475" s="13"/>
+      <c r="B475" s="15"/>
       <c r="C475" s="12" t="s">
         <v>293</v>
       </c>
@@ -7124,45 +7131,472 @@
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A476" s="15"/>
-      <c r="B476" s="23"/>
-      <c r="C476" s="15"/>
+      <c r="A476" s="13"/>
+      <c r="B476" s="15"/>
+      <c r="C476" s="13"/>
       <c r="D476" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A13:D22" xr:uid="{BAF1564C-1AD9-457B-909B-6312E6DC846F}"/>
   <mergeCells count="513">
-    <mergeCell ref="C475:C476"/>
-    <mergeCell ref="C466:C467"/>
-    <mergeCell ref="D466:D467"/>
-    <mergeCell ref="A469:A476"/>
-    <mergeCell ref="B469:B476"/>
-    <mergeCell ref="C469:C470"/>
-    <mergeCell ref="D469:D470"/>
-    <mergeCell ref="C471:C472"/>
-    <mergeCell ref="D471:D472"/>
-    <mergeCell ref="C473:C474"/>
-    <mergeCell ref="D473:D474"/>
-    <mergeCell ref="A458:A467"/>
-    <mergeCell ref="B458:B467"/>
-    <mergeCell ref="C458:C459"/>
-    <mergeCell ref="D458:D459"/>
-    <mergeCell ref="C460:C461"/>
-    <mergeCell ref="D460:D461"/>
-    <mergeCell ref="C462:C463"/>
-    <mergeCell ref="D462:D463"/>
-    <mergeCell ref="C464:C465"/>
-    <mergeCell ref="D464:D465"/>
-    <mergeCell ref="C451:C452"/>
-    <mergeCell ref="D451:D452"/>
-    <mergeCell ref="C453:C454"/>
-    <mergeCell ref="D453:D454"/>
-    <mergeCell ref="C455:C456"/>
-    <mergeCell ref="D455:D456"/>
-    <mergeCell ref="C442:C443"/>
-    <mergeCell ref="D442:D443"/>
-    <mergeCell ref="C444:C445"/>
-    <mergeCell ref="D444:D445"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A72:A89"/>
+    <mergeCell ref="B72:B89"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B70"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A91:A109"/>
+    <mergeCell ref="B91:B109"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="A122:A133"/>
+    <mergeCell ref="B122:B133"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A111:A120"/>
+    <mergeCell ref="B111:B120"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="A148:A155"/>
+    <mergeCell ref="B148:B155"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="A135:A146"/>
+    <mergeCell ref="B135:B146"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A157:A164"/>
+    <mergeCell ref="B157:B164"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="A166:A174"/>
+    <mergeCell ref="B166:B174"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="A176:A183"/>
+    <mergeCell ref="B176:B183"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A194:A203"/>
+    <mergeCell ref="B194:B203"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="A185:A192"/>
+    <mergeCell ref="B185:B192"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="A227:A236"/>
+    <mergeCell ref="B227:B236"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="D229:D230"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="A216:A225"/>
+    <mergeCell ref="B216:B225"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="A205:A214"/>
+    <mergeCell ref="B205:B214"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="D222:D223"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="A260:A269"/>
+    <mergeCell ref="B260:B269"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="A249:A258"/>
+    <mergeCell ref="B249:B258"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="A238:A247"/>
+    <mergeCell ref="B238:B247"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="D242:D243"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="A271:A278"/>
+    <mergeCell ref="B271:B278"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A280:A287"/>
+    <mergeCell ref="B280:B287"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="D282:D283"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="D284:D285"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="A302:A315"/>
+    <mergeCell ref="B302:B315"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="D302:D303"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A289:A300"/>
+    <mergeCell ref="B289:B300"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="D306:D307"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="D308:D309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="A332:A339"/>
+    <mergeCell ref="B332:B339"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="D332:D333"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="D334:D335"/>
+    <mergeCell ref="A317:A330"/>
+    <mergeCell ref="B317:B330"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="C321:C322"/>
+    <mergeCell ref="D321:D322"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="D323:D324"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="D312:D313"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="D314:D315"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="D317:D318"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="D336:D337"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="D338:D339"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="D341:D342"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="C327:C328"/>
+    <mergeCell ref="D327:D328"/>
+    <mergeCell ref="C329:C330"/>
+    <mergeCell ref="D329:D330"/>
+    <mergeCell ref="C360:C361"/>
+    <mergeCell ref="D360:D361"/>
+    <mergeCell ref="C362:C363"/>
+    <mergeCell ref="D362:D363"/>
+    <mergeCell ref="C364:C365"/>
+    <mergeCell ref="D364:D365"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="D351:D352"/>
+    <mergeCell ref="A354:A365"/>
+    <mergeCell ref="B354:B365"/>
+    <mergeCell ref="C354:C355"/>
+    <mergeCell ref="D354:D355"/>
+    <mergeCell ref="C356:C357"/>
+    <mergeCell ref="D356:D357"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="A341:A352"/>
+    <mergeCell ref="B341:B352"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="D345:D346"/>
+    <mergeCell ref="C347:C348"/>
+    <mergeCell ref="D347:D348"/>
+    <mergeCell ref="C349:C350"/>
+    <mergeCell ref="D349:D350"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="D375:D376"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="D377:D378"/>
+    <mergeCell ref="C380:C381"/>
+    <mergeCell ref="D380:D381"/>
+    <mergeCell ref="C382:C383"/>
+    <mergeCell ref="D382:D383"/>
+    <mergeCell ref="A367:A378"/>
+    <mergeCell ref="B367:B378"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="C369:C370"/>
+    <mergeCell ref="D369:D370"/>
+    <mergeCell ref="C371:C372"/>
+    <mergeCell ref="D371:D372"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="C390:C391"/>
+    <mergeCell ref="D390:D391"/>
+    <mergeCell ref="C392:C393"/>
+    <mergeCell ref="D392:D393"/>
+    <mergeCell ref="A395:A402"/>
+    <mergeCell ref="B395:B402"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="D395:D396"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="D397:D398"/>
+    <mergeCell ref="A380:A393"/>
+    <mergeCell ref="B380:B393"/>
+    <mergeCell ref="C384:C385"/>
+    <mergeCell ref="D384:D385"/>
+    <mergeCell ref="C386:C387"/>
+    <mergeCell ref="D386:D387"/>
+    <mergeCell ref="C388:C389"/>
+    <mergeCell ref="D388:D389"/>
+    <mergeCell ref="A413:A423"/>
+    <mergeCell ref="B413:B423"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="D413:D414"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="D415:D416"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="D399:D400"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="D401:D402"/>
+    <mergeCell ref="A404:A411"/>
+    <mergeCell ref="B404:B411"/>
+    <mergeCell ref="C404:C405"/>
+    <mergeCell ref="D404:D405"/>
+    <mergeCell ref="C406:C407"/>
+    <mergeCell ref="D406:D407"/>
+    <mergeCell ref="C431:C432"/>
+    <mergeCell ref="D431:D432"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="D417:D418"/>
+    <mergeCell ref="C419:C420"/>
+    <mergeCell ref="D419:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D421:D423"/>
+    <mergeCell ref="C408:C409"/>
+    <mergeCell ref="D408:D409"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="D410:D411"/>
     <mergeCell ref="A447:A456"/>
     <mergeCell ref="B447:B456"/>
     <mergeCell ref="C447:C448"/>
@@ -7187,464 +7621,37 @@
     <mergeCell ref="D427:D428"/>
     <mergeCell ref="C429:C430"/>
     <mergeCell ref="D429:D430"/>
-    <mergeCell ref="C431:C432"/>
-    <mergeCell ref="D431:D432"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="D417:D418"/>
-    <mergeCell ref="C419:C420"/>
-    <mergeCell ref="D419:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D421:D423"/>
-    <mergeCell ref="C408:C409"/>
-    <mergeCell ref="D408:D409"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="D410:D411"/>
-    <mergeCell ref="A413:A423"/>
-    <mergeCell ref="B413:B423"/>
-    <mergeCell ref="C413:C414"/>
-    <mergeCell ref="D413:D414"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="D415:D416"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="D399:D400"/>
-    <mergeCell ref="C401:C402"/>
-    <mergeCell ref="D401:D402"/>
-    <mergeCell ref="A404:A411"/>
-    <mergeCell ref="B404:B411"/>
-    <mergeCell ref="C404:C405"/>
-    <mergeCell ref="D404:D405"/>
-    <mergeCell ref="C406:C407"/>
-    <mergeCell ref="D406:D407"/>
-    <mergeCell ref="C390:C391"/>
-    <mergeCell ref="D390:D391"/>
-    <mergeCell ref="C392:C393"/>
-    <mergeCell ref="D392:D393"/>
-    <mergeCell ref="A395:A402"/>
-    <mergeCell ref="B395:B402"/>
-    <mergeCell ref="C395:C396"/>
-    <mergeCell ref="D395:D396"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="D397:D398"/>
-    <mergeCell ref="A380:A393"/>
-    <mergeCell ref="B380:B393"/>
-    <mergeCell ref="C384:C385"/>
-    <mergeCell ref="D384:D385"/>
-    <mergeCell ref="C386:C387"/>
-    <mergeCell ref="D386:D387"/>
-    <mergeCell ref="C388:C389"/>
-    <mergeCell ref="D388:D389"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="D375:D376"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="D377:D378"/>
-    <mergeCell ref="C380:C381"/>
-    <mergeCell ref="D380:D381"/>
-    <mergeCell ref="C382:C383"/>
-    <mergeCell ref="D382:D383"/>
-    <mergeCell ref="A367:A378"/>
-    <mergeCell ref="B367:B378"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="D367:D368"/>
-    <mergeCell ref="C369:C370"/>
-    <mergeCell ref="D369:D370"/>
-    <mergeCell ref="C371:C372"/>
-    <mergeCell ref="D371:D372"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="C360:C361"/>
-    <mergeCell ref="D360:D361"/>
-    <mergeCell ref="C362:C363"/>
-    <mergeCell ref="D362:D363"/>
-    <mergeCell ref="C364:C365"/>
-    <mergeCell ref="D364:D365"/>
-    <mergeCell ref="C351:C352"/>
-    <mergeCell ref="D351:D352"/>
-    <mergeCell ref="A354:A365"/>
-    <mergeCell ref="B354:B365"/>
-    <mergeCell ref="C354:C355"/>
-    <mergeCell ref="D354:D355"/>
-    <mergeCell ref="C356:C357"/>
-    <mergeCell ref="D356:D357"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="A341:A352"/>
-    <mergeCell ref="B341:B352"/>
-    <mergeCell ref="C345:C346"/>
-    <mergeCell ref="D345:D346"/>
-    <mergeCell ref="C347:C348"/>
-    <mergeCell ref="D347:D348"/>
-    <mergeCell ref="C349:C350"/>
-    <mergeCell ref="D349:D350"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="D336:D337"/>
-    <mergeCell ref="C338:C339"/>
-    <mergeCell ref="D338:D339"/>
-    <mergeCell ref="C341:C342"/>
-    <mergeCell ref="D341:D342"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="D343:D344"/>
-    <mergeCell ref="C327:C328"/>
-    <mergeCell ref="D327:D328"/>
-    <mergeCell ref="C329:C330"/>
-    <mergeCell ref="D329:D330"/>
-    <mergeCell ref="A332:A339"/>
-    <mergeCell ref="B332:B339"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="D332:D333"/>
-    <mergeCell ref="C334:C335"/>
-    <mergeCell ref="D334:D335"/>
-    <mergeCell ref="A317:A330"/>
-    <mergeCell ref="B317:B330"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="C321:C322"/>
-    <mergeCell ref="D321:D322"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="D323:D324"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="D314:D315"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="D317:D318"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="D319:D320"/>
-    <mergeCell ref="A302:A315"/>
-    <mergeCell ref="B302:B315"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="D302:D303"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A289:A300"/>
-    <mergeCell ref="B289:B300"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="D306:D307"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="D308:D309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="A280:A287"/>
-    <mergeCell ref="B280:B287"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="D282:D283"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="D284:D285"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A271:A278"/>
-    <mergeCell ref="B271:B278"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="A260:A269"/>
-    <mergeCell ref="B260:B269"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="A249:A258"/>
-    <mergeCell ref="B249:B258"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="A238:A247"/>
-    <mergeCell ref="B238:B247"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="D242:D243"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:D232"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="D222:D223"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="A227:A236"/>
-    <mergeCell ref="B227:B236"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="D229:D230"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="A216:A225"/>
-    <mergeCell ref="B216:B225"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="A205:A214"/>
-    <mergeCell ref="B205:B214"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="A176:A183"/>
-    <mergeCell ref="B176:B183"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="A194:A203"/>
-    <mergeCell ref="B194:B203"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="A185:A192"/>
-    <mergeCell ref="B185:B192"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A166:A174"/>
-    <mergeCell ref="B166:B174"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="A157:A164"/>
-    <mergeCell ref="B157:B164"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="A148:A155"/>
-    <mergeCell ref="B148:B155"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="A135:A146"/>
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="A122:A133"/>
-    <mergeCell ref="B122:B133"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A111:A120"/>
-    <mergeCell ref="B111:B120"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="A91:A109"/>
-    <mergeCell ref="B91:B109"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="A72:A89"/>
-    <mergeCell ref="B72:B89"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B70"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C451:C452"/>
+    <mergeCell ref="D451:D452"/>
+    <mergeCell ref="C453:C454"/>
+    <mergeCell ref="D453:D454"/>
+    <mergeCell ref="C455:C456"/>
+    <mergeCell ref="D455:D456"/>
+    <mergeCell ref="C442:C443"/>
+    <mergeCell ref="D442:D443"/>
+    <mergeCell ref="C444:C445"/>
+    <mergeCell ref="D444:D445"/>
+    <mergeCell ref="C475:C476"/>
+    <mergeCell ref="C466:C467"/>
+    <mergeCell ref="D466:D467"/>
+    <mergeCell ref="A469:A476"/>
+    <mergeCell ref="B469:B476"/>
+    <mergeCell ref="C469:C470"/>
+    <mergeCell ref="D469:D470"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="D471:D472"/>
+    <mergeCell ref="C473:C474"/>
+    <mergeCell ref="D473:D474"/>
+    <mergeCell ref="A458:A467"/>
+    <mergeCell ref="B458:B467"/>
+    <mergeCell ref="C458:C459"/>
+    <mergeCell ref="D458:D459"/>
+    <mergeCell ref="C460:C461"/>
+    <mergeCell ref="D460:D461"/>
+    <mergeCell ref="C462:C463"/>
+    <mergeCell ref="D462:D463"/>
+    <mergeCell ref="C464:C465"/>
+    <mergeCell ref="D464:D465"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D064CB40-A6BF-4499-B43A-D1F3EDAE17F0}"/>
@@ -7893,58 +7900,58 @@
       <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="24" t="s">
         <v>317</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -7952,10 +7959,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -7969,123 +7976,123 @@
       <c r="B11" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="24" t="s">
         <v>319</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -8093,15 +8100,15 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="24" t="s">
         <v>322</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -8109,83 +8116,83 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="24" t="s">
         <v>326</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -8193,67 +8200,67 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="20" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="25" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="24" t="s">
         <v>319</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -8261,15 +8268,15 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="24" t="s">
         <v>329</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -8277,10 +8284,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
@@ -8289,66 +8296,66 @@
       <c r="B53" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="20" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="25" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="18" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
@@ -8359,169 +8366,169 @@
       <c r="A62" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="20" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="25" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="18" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="25" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="18" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="20" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="25" t="s">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="18" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="25" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="18" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
@@ -8536,66 +8543,66 @@
       <c r="B84" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="20" t="s">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
       <c r="C88" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="25" t="s">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
@@ -8609,82 +8616,82 @@
       <c r="B93" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="20" t="s">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="25" t="s">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="25" t="s">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="18" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
@@ -8693,139 +8700,139 @@
       <c r="B104" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="20" t="s">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="25" t="s">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="25" t="s">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="18" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D115" s="19" t="s">
+      <c r="D115" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="20" t="s">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D119" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="25" t="s">
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="24" t="s">
         <v>344</v>
       </c>
       <c r="D121" s="14" t="s">
@@ -8833,67 +8840,67 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="20" t="s">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
       <c r="C128" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D128" s="18" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="25" t="s">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="24" t="s">
         <v>347</v>
       </c>
       <c r="D130" s="14" t="s">
@@ -8901,25 +8908,121 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A31:A40"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="A73:A82"/>
+    <mergeCell ref="B73:B82"/>
     <mergeCell ref="C90:C91"/>
     <mergeCell ref="D90:D91"/>
     <mergeCell ref="C112:C113"/>
@@ -8944,114 +9047,18 @@
     <mergeCell ref="D110:D111"/>
     <mergeCell ref="A93:A102"/>
     <mergeCell ref="B93:B102"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A73:A82"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="B62:B71"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A31:A40"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B7B1A2D1-6E12-4F1C-86D4-F076B678A8F3}"/>
